--- a/Excels/EstadosTickets.xlsx
+++ b/Excels/EstadosTickets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13AFA6-E5BB-49B3-BADF-7EC6878B2450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A2ACE-DCCA-4F6C-B278-3891E587C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Usuario</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>- Ponerlo en estado En Curso (para que la empresa sepa que se está resolviendo)</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -327,6 +333,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,18 +355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2381,14 +2387,14 @@
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
@@ -2608,13 +2614,13 @@
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D29" s="7" t="s">
@@ -2732,175 +2738,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520F556-75A5-4FF8-9F81-AE1252A4DB9B}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.44140625" style="15" customWidth="1"/>
-    <col min="3" max="6" width="9.88671875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="2" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="15"/>
+    <col min="2" max="2" width="2.44140625" style="11" customWidth="1"/>
+    <col min="3" max="6" width="9.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="2" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="19" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="I5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="H6" s="19" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="H7" s="19" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="H10" s="19" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="I10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="H11" s="19" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="H14" s="19" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="I14" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="H15" s="19" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="I15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="H16" s="19" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="H16" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="I16" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="11"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="11"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="11"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="11"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="11"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="11"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="11"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="11"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="11"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="11"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="11"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="11"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="11"/>
+      <c r="I37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/EstadosTickets.xlsx
+++ b/Excels/EstadosTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A2ACE-DCCA-4F6C-B278-3891E587C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D7C21-2FCE-4F54-AFE4-DD541CB8B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Usuario</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>estado</t>
-  </si>
-  <si>
-    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2738,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2751,7 @@
     <col min="9" max="16384" width="11.5546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2783,21 +2780,18 @@
       <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -2808,11 +2802,8 @@
       <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -2823,11 +2814,8 @@
       <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
@@ -2838,20 +2826,17 @@
       <c r="H7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -2862,11 +2847,8 @@
       <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
@@ -2877,20 +2859,17 @@
       <c r="H11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
@@ -2901,11 +2880,8 @@
       <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
@@ -2916,11 +2892,8 @@
       <c r="H15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2931,9 +2904,6 @@
       <c r="H16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
